--- a/Gépi intelligencia/3het/data.xlsx
+++ b/Gépi intelligencia/3het/data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12" uniqueCount="2">
   <si>
     <t>x</t>
   </si>
@@ -64,14 +64,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="true"/>
-    <col min="2" max="2" width="6.7109375" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -87,79 +87,159 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>1.1052</v>
+        <v>1.1051709180756477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.14736842105263159</v>
       </c>
       <c r="B3" s="0">
-        <v>1.2214</v>
+        <v>1.1587808036399401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.29999999999999999</v>
+        <v>0.19473684210526315</v>
       </c>
       <c r="B4" s="0">
-        <v>1.3499000000000001</v>
+        <v>1.2149912098867899</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.40000000000000002</v>
+        <v>0.24210526315789474</v>
       </c>
       <c r="B5" s="0">
-        <v>1.4918</v>
+        <v>1.2739282834727179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.5</v>
+        <v>0.28947368421052633</v>
       </c>
       <c r="B6" s="0">
-        <v>1.6487000000000001</v>
+        <v>1.3357242902053281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.33684210526315789</v>
       </c>
       <c r="B7" s="0">
-        <v>1.8221000000000001</v>
+        <v>1.4005179118724991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.69999999999999996</v>
+        <v>0.38421052631578945</v>
       </c>
       <c r="B8" s="0">
-        <v>2.0137999999999998</v>
+        <v>1.4684545574702321</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.80000000000000004</v>
+        <v>0.43157894736842106</v>
       </c>
       <c r="B9" s="0">
-        <v>2.2254999999999998</v>
+        <v>1.5396866895276142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.90000000000000002</v>
+        <v>0.47894736842105268</v>
       </c>
       <c r="B10" s="0">
-        <v>2.4596</v>
+        <v>1.6143741662612265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1.6926846003268561</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5736842105263158</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1.7747937349736218</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.62105263157894741</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1.8608858384446674</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.66842105263157892</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1.951154117509537</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.71578947368421053</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2.0458011510562746</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.76315789473684204</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2.145039344716305</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.81052631578947365</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2.2490914075423687</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.85789473684210527</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2.3581908518092569</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.90526315789473688</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2.4725825170589957</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.95263157894736838</v>
+      </c>
+      <c r="B20" s="0">
+        <v>2.5925231195665344</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>1</v>
       </c>
-      <c r="B11" s="0">
-        <v>2.7183000000000002</v>
+      <c r="B21" s="0">
+        <v>2.7182818284590451</v>
       </c>
     </row>
   </sheetData>

--- a/Gépi intelligencia/3het/data.xlsx
+++ b/Gépi intelligencia/3het/data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="22" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="26" uniqueCount="2">
   <si>
     <t>x</t>
   </si>
@@ -92,1594 +92,1594 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.14736842105263159</v>
+        <v>0.10452261306532663</v>
       </c>
       <c r="B3" s="0">
-        <v>1.1587808036399401</v>
+        <v>1.1101804981665024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.19473684210526315</v>
+        <v>0.10904522613065327</v>
       </c>
       <c r="B4" s="0">
-        <v>1.2149912098867899</v>
+        <v>1.1152127859600993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.24210526315789474</v>
+        <v>0.1135678391959799</v>
       </c>
       <c r="B5" s="0">
-        <v>1.2739282834727179</v>
+        <v>1.1202678843871736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.28947368421052633</v>
+        <v>0.11809045226130654</v>
       </c>
       <c r="B6" s="0">
-        <v>1.3357242902053281</v>
+        <v>1.1253458968450314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.33684210526315789</v>
+        <v>0.12261306532663317</v>
       </c>
       <c r="B7" s="0">
-        <v>1.4005179118724991</v>
+        <v>1.1304469271996629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.38421052631578945</v>
+        <v>0.1271356783919598</v>
       </c>
       <c r="B8" s="0">
-        <v>1.4684545574702321</v>
+        <v>1.1355710797878691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.43157894736842106</v>
+        <v>0.13165829145728644</v>
       </c>
       <c r="B9" s="0">
-        <v>1.5396866895276142</v>
+        <v>1.1407184594193938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.47894736842105268</v>
+        <v>0.13618090452261306</v>
       </c>
       <c r="B10" s="0">
-        <v>1.6143741662612265</v>
+        <v>1.145889171379068</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.52631578947368418</v>
+        <v>0.1407035175879397</v>
       </c>
       <c r="B11" s="0">
-        <v>1.6926846003268561</v>
+        <v>1.1510833214289644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5736842105263158</v>
+        <v>0.14522613065326634</v>
       </c>
       <c r="B12" s="0">
-        <v>1.7747937349736218</v>
+        <v>1.1563010158105596</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.62105263157894741</v>
+        <v>0.14974874371859298</v>
       </c>
       <c r="B13" s="0">
-        <v>1.8608858384446674</v>
+        <v>1.1615423612469071</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.66842105263157892</v>
+        <v>0.15427135678391962</v>
       </c>
       <c r="B14" s="0">
-        <v>1.951154117509537</v>
+        <v>1.1668074649448212</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.71578947368421053</v>
+        <v>0.15879396984924624</v>
       </c>
       <c r="B15" s="0">
-        <v>2.0458011510562746</v>
+        <v>1.1720964345970686</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.76315789473684204</v>
+        <v>0.16331658291457285</v>
       </c>
       <c r="B16" s="0">
-        <v>2.145039344716305</v>
+        <v>1.1774093783845718</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.81052631578947365</v>
+        <v>0.16783919597989949</v>
       </c>
       <c r="B17" s="0">
-        <v>2.2490914075423687</v>
+        <v>1.1827464049786225</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.85789473684210527</v>
+        <v>0.17236180904522613</v>
       </c>
       <c r="B18" s="0">
-        <v>2.3581908518092569</v>
+        <v>1.188107623543103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.90526315789473688</v>
+        <v>0.17688442211055277</v>
       </c>
       <c r="B19" s="0">
-        <v>2.4725825170589957</v>
+        <v>1.19349314373672</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.95263157894736838</v>
+        <v>0.18140703517587942</v>
       </c>
       <c r="B20" s="0">
-        <v>2.5925231195665344</v>
+        <v>1.1989030757152466</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>1</v>
+        <v>0.18592964824120606</v>
       </c>
       <c r="B21" s="0">
-        <v>2.7182818284590451</v>
+        <v>1.2043375301337773</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.10900450225112557</v>
+        <v>0.19045226130653267</v>
       </c>
       <c r="B22" s="0">
-        <v>1.1151673710936971</v>
+        <v>1.2097966181489892</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.10945472736368185</v>
+        <v>0.19497487437185931</v>
       </c>
       <c r="B23" s="0">
-        <v>1.1156695604895226</v>
+        <v>1.2152804514214171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.10990495247623813</v>
+        <v>0.19949748743718593</v>
       </c>
       <c r="B24" s="0">
-        <v>1.1161719760345306</v>
+        <v>1.2207891421177361</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1103551775887944</v>
+        <v>0.20402010050251257</v>
       </c>
       <c r="B25" s="0">
-        <v>1.1166746178305618</v>
+        <v>1.2263228029130577</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.11080540270135068</v>
+        <v>0.20854271356783921</v>
       </c>
       <c r="B26" s="0">
-        <v>1.1171774859795034</v>
+        <v>1.2318815469932327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.11125562781390697</v>
+        <v>0.21306532663316585</v>
       </c>
       <c r="B27" s="0">
-        <v>1.1176805805832881</v>
+        <v>1.2374654880571672</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.11170585292646323</v>
+        <v>0.21758793969849249</v>
       </c>
       <c r="B28" s="0">
-        <v>1.1181839017438941</v>
+        <v>1.243074740319148</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.11215607803901952</v>
+        <v>0.22211055276381911</v>
       </c>
       <c r="B29" s="0">
-        <v>1.1186874495633463</v>
+        <v>1.2487094185111787</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.1126063031515758</v>
+        <v>0.22663316582914572</v>
       </c>
       <c r="B30" s="0">
-        <v>1.1191912241437152</v>
+        <v>1.2543696378853264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.11305652826413207</v>
+        <v>0.23115577889447236</v>
       </c>
       <c r="B31" s="0">
-        <v>1.1196952255871171</v>
+        <v>1.2600555142160799</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.11350675337668835</v>
+        <v>0.23567839195979901</v>
       </c>
       <c r="B32" s="0">
-        <v>1.1201994539957143</v>
+        <v>1.2657671638027157</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.11395697848924463</v>
+        <v>0.24020100502512565</v>
       </c>
       <c r="B33" s="0">
-        <v>1.1207039094717155</v>
+        <v>1.2715047034716793</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.1144072036018009</v>
+        <v>0.24472361809045226</v>
       </c>
       <c r="B34" s="0">
-        <v>1.1212085921173751</v>
+        <v>1.277268250578973</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.11485742871435718</v>
+        <v>0.2492462311557789</v>
       </c>
       <c r="B35" s="0">
-        <v>1.1217135020349938</v>
+        <v>1.2830579230125572</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.11530765382691346</v>
+        <v>0.25376884422110557</v>
       </c>
       <c r="B36" s="0">
-        <v>1.1222186393269176</v>
+        <v>1.288873839194761</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.11575787893946973</v>
+        <v>0.25829145728643216</v>
       </c>
       <c r="B37" s="0">
-        <v>1.1227240040955397</v>
+        <v>1.2947161180847053</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.11620810405202602</v>
+        <v>0.2628140703517588</v>
       </c>
       <c r="B38" s="0">
-        <v>1.1232295964432986</v>
+        <v>1.3005848791807353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.1166583291645823</v>
+        <v>0.26733668341708544</v>
       </c>
       <c r="B39" s="0">
-        <v>1.1237354164726794</v>
+        <v>1.3064802425228648</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.11710855427713858</v>
+        <v>0.27185929648241208</v>
       </c>
       <c r="B40" s="0">
-        <v>1.1242414642862131</v>
+        <v>1.3124023286952315</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.11755877938969486</v>
+        <v>0.27638190954773867</v>
       </c>
       <c r="B41" s="0">
-        <v>1.1247477399864769</v>
+        <v>1.3183512588285642</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.11800900450225113</v>
+        <v>0.28090452261306531</v>
       </c>
       <c r="B42" s="0">
-        <v>1.1252542436760944</v>
+        <v>1.3243271546026594</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.11845922961480741</v>
+        <v>0.28542713567839195</v>
       </c>
       <c r="B43" s="0">
-        <v>1.1257609754577349</v>
+        <v>1.3303301382488701</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.11890945472736369</v>
+        <v>0.28994974874371859</v>
       </c>
       <c r="B44" s="0">
-        <v>1.1262679354341145</v>
+        <v>1.3363603325526074</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.11935967983991996</v>
+        <v>0.29447236180904524</v>
       </c>
       <c r="B45" s="0">
-        <v>1.1267751237079953</v>
+        <v>1.3424178608558499</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.11980990495247625</v>
+        <v>0.29899497487437188</v>
       </c>
       <c r="B46" s="0">
-        <v>1.1272825403821858</v>
+        <v>1.3485028470596681</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.12026013006503253</v>
+        <v>0.30351758793969852</v>
       </c>
       <c r="B47" s="0">
-        <v>1.1277901855595405</v>
+        <v>1.3546154156267582</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.1207103551775888</v>
+        <v>0.30804020100502516</v>
       </c>
       <c r="B48" s="0">
-        <v>1.1282980593429606</v>
+        <v>1.3607556915839876</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.12116058029014508</v>
+        <v>0.3125628140703518</v>
       </c>
       <c r="B49" s="0">
-        <v>1.1288061618353935</v>
+        <v>1.3669238005249522</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.12161080540270136</v>
+        <v>0.31708542713567844</v>
       </c>
       <c r="B50" s="0">
-        <v>1.1293144931398327</v>
+        <v>1.3731198686125463</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.12206103051525763</v>
+        <v>0.32160804020100503</v>
       </c>
       <c r="B51" s="0">
-        <v>1.1298230533593185</v>
+        <v>1.3793440225815414</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.12251125562781391</v>
+        <v>0.32613065326633167</v>
       </c>
       <c r="B52" s="0">
-        <v>1.1303318425969375</v>
+        <v>1.3855963897411803</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.12296148074037019</v>
+        <v>0.33065326633165826</v>
       </c>
       <c r="B53" s="0">
-        <v>1.1308408609558223</v>
+        <v>1.3918770979777797</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.12341170585292648</v>
+        <v>0.33517587939698495</v>
       </c>
       <c r="B54" s="0">
-        <v>1.1313501085391524</v>
+        <v>1.3981862757573464</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.12386193096548274</v>
+        <v>0.33969849246231154</v>
       </c>
       <c r="B55" s="0">
-        <v>1.1318595854501539</v>
+        <v>1.4045240521282056</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.12431215607803903</v>
+        <v>0.34422110552763818</v>
       </c>
       <c r="B56" s="0">
-        <v>1.1323692917920987</v>
+        <v>1.4108905567236394</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.1247623811905953</v>
+        <v>0.34874371859296482</v>
       </c>
       <c r="B57" s="0">
-        <v>1.132879227668306</v>
+        <v>1.4172859197645387</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.12521260630315159</v>
+        <v>0.35326633165829147</v>
       </c>
       <c r="B58" s="0">
-        <v>1.1333893931821408</v>
+        <v>1.4237102720620676</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.12566283141570786</v>
+        <v>0.35778894472361811</v>
       </c>
       <c r="B59" s="0">
-        <v>1.1338997884370152</v>
+        <v>1.4301637450203377</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.12611305652826413</v>
+        <v>0.36231155778894475</v>
       </c>
       <c r="B60" s="0">
-        <v>1.1344104135363879</v>
+        <v>1.4366464706390967</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.12656328164082042</v>
+        <v>0.36683417085427139</v>
       </c>
       <c r="B61" s="0">
-        <v>1.1349212685837637</v>
+        <v>1.4431585815164278</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.12701350675337669</v>
+        <v>0.37135678391959803</v>
       </c>
       <c r="B62" s="0">
-        <v>1.1354323536826942</v>
+        <v>1.4497002108514625</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.12746373186593296</v>
+        <v>0.37587939698492467</v>
       </c>
       <c r="B63" s="0">
-        <v>1.1359436689367779</v>
+        <v>1.456271492447105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.12791395697848926</v>
+        <v>0.38040201005025132</v>
       </c>
       <c r="B64" s="0">
-        <v>1.1364552144496596</v>
+        <v>1.4628725607127677</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.12836418209104553</v>
+        <v>0.38492462311557796</v>
       </c>
       <c r="B65" s="0">
-        <v>1.136966990325031</v>
+        <v>1.4695035506671223</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.12881440720360182</v>
+        <v>0.38944723618090449</v>
       </c>
       <c r="B66" s="0">
-        <v>1.1374789966666305</v>
+        <v>1.4761645979408606</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.12926463231615809</v>
+        <v>0.39396984924623113</v>
       </c>
       <c r="B67" s="0">
-        <v>1.1379912335782432</v>
+        <v>1.4828558387794681</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.12971485742871436</v>
+        <v>0.39849246231155777</v>
       </c>
       <c r="B68" s="0">
-        <v>1.1385037011637005</v>
+        <v>1.4895774100460124</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.13016508254127065</v>
+        <v>0.40301507537688441</v>
       </c>
       <c r="B69" s="0">
-        <v>1.1390163995268814</v>
+        <v>1.4963294492239405</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.13061530765382692</v>
+        <v>0.40753768844221105</v>
       </c>
       <c r="B70" s="0">
-        <v>1.139529328771711</v>
+        <v>1.503112094419893</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.13106553276638319</v>
+        <v>0.4120603015075377</v>
       </c>
       <c r="B71" s="0">
-        <v>1.1400424890021614</v>
+        <v>1.5099254843665273</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.13151575787893949</v>
+        <v>0.41658291457286434</v>
       </c>
       <c r="B72" s="0">
-        <v>1.1405558803222517</v>
+        <v>1.5167697584253559</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.13196598299149576</v>
+        <v>0.42110552763819098</v>
       </c>
       <c r="B73" s="0">
-        <v>1.1410695028360476</v>
+        <v>1.5236450565895971</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.13241620810405202</v>
+        <v>0.42562814070351762</v>
       </c>
       <c r="B74" s="0">
-        <v>1.1415833566476614</v>
+        <v>1.5305515194870385</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.13286643321660832</v>
+        <v>0.43015075376884426</v>
       </c>
       <c r="B75" s="0">
-        <v>1.1420974418612533</v>
+        <v>1.5374892883829128</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.13331665832916459</v>
+        <v>0.4346733668341709</v>
       </c>
       <c r="B76" s="0">
-        <v>1.1426117585810291</v>
+        <v>1.5444585051827873</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.13376688344172086</v>
+        <v>0.43919597989949755</v>
       </c>
       <c r="B77" s="0">
-        <v>1.1431263069112427</v>
+        <v>1.5514593124354674</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.13421710855427715</v>
+        <v>0.44371859296482419</v>
       </c>
       <c r="B78" s="0">
-        <v>1.1436410869561942</v>
+        <v>1.5584918533359113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.13466733366683342</v>
+        <v>0.44824120603015072</v>
       </c>
       <c r="B79" s="0">
-        <v>1.1441560988202306</v>
+        <v>1.565556271728159</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.13511755877938969</v>
+        <v>0.45276381909547736</v>
       </c>
       <c r="B80" s="0">
-        <v>1.1446713426077466</v>
+        <v>1.5726527121082756</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.13556778389194599</v>
+        <v>0.45728643216080411</v>
       </c>
       <c r="B81" s="0">
-        <v>1.1451868184231833</v>
+        <v>1.5797813196273049</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.13601800900450225</v>
+        <v>0.46180904522613064</v>
       </c>
       <c r="B82" s="0">
-        <v>1.145702526371029</v>
+        <v>1.5869422400942399</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.13646823411705855</v>
+        <v>0.46633165829145728</v>
       </c>
       <c r="B83" s="0">
-        <v>1.146218466555819</v>
+        <v>1.5941356199790051</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.13691845922961482</v>
+        <v>0.47085427135678393</v>
       </c>
       <c r="B84" s="0">
-        <v>1.146734639082136</v>
+        <v>1.6013616064154512</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.13736868434217109</v>
+        <v>0.47537688442211057</v>
       </c>
       <c r="B85" s="0">
-        <v>1.1472510440546093</v>
+        <v>1.6086203472043663</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.13781890945472736</v>
+        <v>0.47989949748743721</v>
       </c>
       <c r="B86" s="0">
-        <v>1.1477676815779156</v>
+        <v>1.6159119908164969</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.13826913456728365</v>
+        <v>0.48442211055276385</v>
       </c>
       <c r="B87" s="0">
-        <v>1.1482845517567788</v>
+        <v>1.6232366863955874</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.13871935967983992</v>
+        <v>0.48894472361809049</v>
       </c>
       <c r="B88" s="0">
-        <v>1.1488016546959698</v>
+        <v>1.6305945837614282</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.13916958479239622</v>
+        <v>0.49346733668341702</v>
       </c>
       <c r="B89" s="0">
-        <v>1.1493189905003067</v>
+        <v>1.6379858334129211</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.13961980990495249</v>
+        <v>0.49798994974874378</v>
       </c>
       <c r="B90" s="0">
-        <v>1.1498365592746551</v>
+        <v>1.645410586531159</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.14007003501750875</v>
+        <v>0.50251256281407042</v>
       </c>
       <c r="B91" s="0">
-        <v>1.1503543611239271</v>
+        <v>1.652868994982515</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.14052026013006502</v>
+        <v>0.50703517587939695</v>
       </c>
       <c r="B92" s="0">
-        <v>1.1508723961530827</v>
+        <v>1.6603612113217516</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.14097048524262132</v>
+        <v>0.5115577889447237</v>
       </c>
       <c r="B93" s="0">
-        <v>1.1513906644671292</v>
+        <v>1.6678873887951404</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.14142071035517759</v>
+        <v>0.51608040201005023</v>
       </c>
       <c r="B94" s="0">
-        <v>1.1519091661711207</v>
+        <v>1.6754476813435948</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.14187093546773388</v>
+        <v>0.52060301507537687</v>
       </c>
       <c r="B95" s="0">
-        <v>1.152427901370159</v>
+        <v>1.6830422436058217</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.14232116058029015</v>
+        <v>0.52512562814070352</v>
       </c>
       <c r="B96" s="0">
-        <v>1.152946870169393</v>
+        <v>1.6906712309214815</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.14277138569284642</v>
+        <v>0.52964824120603016</v>
       </c>
       <c r="B97" s="0">
-        <v>1.1534660726740191</v>
+        <v>1.6983347993343683</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.14322161080540272</v>
+        <v>0.5341708542713568</v>
       </c>
       <c r="B98" s="0">
-        <v>1.1539855089892812</v>
+        <v>1.7060331055955986</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.14367183591795898</v>
+        <v>0.53869346733668344</v>
       </c>
       <c r="B99" s="0">
-        <v>1.1545051792204701</v>
+        <v>1.7137663071668201</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.14412206103051528</v>
+        <v>0.54321608040201008</v>
       </c>
       <c r="B100" s="0">
-        <v>1.1550250834729245</v>
+        <v>1.7215345622234315</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.14457228614307155</v>
+        <v>0.54773869346733672</v>
       </c>
       <c r="B101" s="0">
-        <v>1.1555452218520306</v>
+        <v>1.7293380296578167</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.14502251125562782</v>
+        <v>0.55226130653266337</v>
       </c>
       <c r="B102" s="0">
-        <v>1.1560655944632214</v>
+        <v>1.7371768690825971</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.14547273636818409</v>
+        <v>0.55678391959799001</v>
       </c>
       <c r="B103" s="0">
-        <v>1.1565862014119781</v>
+        <v>1.7450512408338938</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.14592296148074038</v>
+        <v>0.56130653266331654</v>
       </c>
       <c r="B104" s="0">
-        <v>1.1571070428038288</v>
+        <v>1.7529613059746096</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.14637318659329665</v>
+        <v>0.56582914572864329</v>
       </c>
       <c r="B105" s="0">
-        <v>1.15762811874435</v>
+        <v>1.7609072262977215</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.14682341170585295</v>
+        <v>0.57035175879396993</v>
       </c>
       <c r="B106" s="0">
-        <v>1.1581494293391645</v>
+        <v>1.7688891643295905</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.14727363681840921</v>
+        <v>0.57487437185929646</v>
       </c>
       <c r="B107" s="0">
-        <v>1.1586709746939441</v>
+        <v>1.7769072833332862</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.14772386193096548</v>
+        <v>0.5793969849246231</v>
       </c>
       <c r="B108" s="0">
-        <v>1.1591927549144065</v>
+        <v>1.7849617473119268</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.14817408704352175</v>
+        <v>0.58391959798994975</v>
       </c>
       <c r="B109" s="0">
-        <v>1.1597147701063188</v>
+        <v>1.7930527210120322</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.14862431215607805</v>
+        <v>0.58844221105527639</v>
       </c>
       <c r="B110" s="0">
-        <v>1.1602370203754946</v>
+        <v>1.8011803699268947</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.14907453726863434</v>
+        <v>0.59296482412060303</v>
       </c>
       <c r="B111" s="0">
-        <v>1.1607595058277951</v>
+        <v>1.8093448602999636</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.14952476238119061</v>
+        <v>0.59748743718592967</v>
       </c>
       <c r="B112" s="0">
-        <v>1.1612822265691296</v>
+        <v>1.8175463591282461</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.14997498749374688</v>
+        <v>0.60201005025125631</v>
       </c>
       <c r="B113" s="0">
-        <v>1.1618051827054554</v>
+        <v>1.8257850341657225</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.15042521260630315</v>
+        <v>0.60653266331658284</v>
       </c>
       <c r="B114" s="0">
-        <v>1.1623283743427766</v>
+        <v>1.8340610539267772</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.15087543771885945</v>
+        <v>0.61105527638190948</v>
       </c>
       <c r="B115" s="0">
-        <v>1.1628518015871456</v>
+        <v>1.8423745876896471</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.15132566283141571</v>
+        <v>0.61557788944723624</v>
       </c>
       <c r="B116" s="0">
-        <v>1.163375464544663</v>
+        <v>1.8507258054998823</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.15177588794397198</v>
+        <v>0.62010050251256277</v>
       </c>
       <c r="B117" s="0">
-        <v>1.163899363321476</v>
+        <v>1.8591148781738238</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.15222611305652828</v>
+        <v>0.62462311557788941</v>
       </c>
       <c r="B118" s="0">
-        <v>1.1644234980237806</v>
+        <v>1.8675419773021003</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.15267633816908455</v>
+        <v>0.62914572864321605</v>
       </c>
       <c r="B119" s="0">
-        <v>1.1649478687578203</v>
+        <v>1.8760072752531345</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.15312656328164082</v>
+        <v>0.63366834170854269</v>
       </c>
       <c r="B120" s="0">
-        <v>1.1654724756298864</v>
+        <v>1.8845109451766708</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.15357678839419711</v>
+        <v>0.63819095477386933</v>
       </c>
       <c r="B121" s="0">
-        <v>1.1659973187463182</v>
+        <v>1.8930531610073167</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.15402701350675338</v>
+        <v>0.64271356783919598</v>
       </c>
       <c r="B122" s="0">
-        <v>1.1665223982135025</v>
+        <v>1.9016340974680994</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.15447723861930968</v>
+        <v>0.64723618090452262</v>
       </c>
       <c r="B123" s="0">
-        <v>1.1670477141378746</v>
+        <v>1.9102539300740411</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.15492746373186594</v>
+        <v>0.65175879396984926</v>
       </c>
       <c r="B124" s="0">
-        <v>1.1675732666259173</v>
+        <v>1.9189128351357478</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.15537768884442221</v>
+        <v>0.6562814070351759</v>
       </c>
       <c r="B125" s="0">
-        <v>1.1680990557841615</v>
+        <v>1.927610989763016</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.15582791395697851</v>
+        <v>0.66080402010050254</v>
       </c>
       <c r="B126" s="0">
-        <v>1.1686250817191863</v>
+        <v>1.9363485718684554</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.15627813906953478</v>
+        <v>0.66532663316582907</v>
       </c>
       <c r="B127" s="0">
-        <v>1.169151344537618</v>
+        <v>1.9451257601711278</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.15672836418209105</v>
+        <v>0.66984924623115583</v>
       </c>
       <c r="B128" s="0">
-        <v>1.1696778443461322</v>
+        <v>1.9539427342002034</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.15717858929464734</v>
+        <v>0.67437185929648236</v>
       </c>
       <c r="B129" s="0">
-        <v>1.170204581251451</v>
+        <v>1.9627996742986304</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.15762881440720361</v>
+        <v>0.678894472361809</v>
       </c>
       <c r="B130" s="0">
-        <v>1.1707315553603461</v>
+        <v>1.9716967616268275</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.15807903951975988</v>
+        <v>0.68341708542713575</v>
       </c>
       <c r="B131" s="0">
-        <v>1.1712587667796361</v>
+        <v>1.9806341781663868</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.15852926463231615</v>
+        <v>0.68793969849246228</v>
       </c>
       <c r="B132" s="0">
-        <v>1.1717862156161882</v>
+        <v>1.9896121067237953</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.15897948974487244</v>
+        <v>0.69246231155778892</v>
       </c>
       <c r="B133" s="0">
-        <v>1.172313901976918</v>
+        <v>1.9986307309341773</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.15942971485742871</v>
+        <v>0.69698492462311556</v>
       </c>
       <c r="B134" s="0">
-        <v>1.1728418259687885</v>
+        <v>2.0076902352650481</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.15987993996998501</v>
+        <v>0.70150753768844221</v>
       </c>
       <c r="B135" s="0">
-        <v>1.1733699876988115</v>
+        <v>2.0167908050200869</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.16033016508254128</v>
+        <v>0.70603015075376885</v>
       </c>
       <c r="B136" s="0">
-        <v>1.1738983872740467</v>
+        <v>2.0259326263429278</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.16078039019509754</v>
+        <v>0.71055276381909549</v>
       </c>
       <c r="B137" s="0">
-        <v>1.1744270248016022</v>
+        <v>2.035115886220968</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.16123061530765384</v>
+        <v>0.71507537688442213</v>
       </c>
       <c r="B138" s="0">
-        <v>1.1749559003886345</v>
+        <v>2.0443407724891904</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.16168084042021011</v>
+        <v>0.71959798994974866</v>
       </c>
       <c r="B139" s="0">
-        <v>1.1754850141423474</v>
+        <v>2.0536074738340075</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.16213106553276641</v>
+        <v>0.72412060301507541</v>
       </c>
       <c r="B140" s="0">
-        <v>1.1760143661699942</v>
+        <v>2.0629161797971207</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.16258129064532267</v>
+        <v>0.72864321608040206</v>
       </c>
       <c r="B141" s="0">
-        <v>1.176543956578876</v>
+        <v>2.0722670807793948</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.16303151575787894</v>
+        <v>0.73316582914572859</v>
       </c>
       <c r="B142" s="0">
-        <v>1.1770737854763418</v>
+        <v>2.0816603680447545</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.16348174087043521</v>
+        <v>0.73768844221105523</v>
       </c>
       <c r="B143" s="0">
-        <v>1.1776038529697894</v>
+        <v>2.0910962337240981</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.16393196598299151</v>
+        <v>0.74221105527638187</v>
       </c>
       <c r="B144" s="0">
-        <v>1.1781341591666652</v>
+        <v>2.1005748708192238</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.1643821910955478</v>
+        <v>0.74673366834170862</v>
       </c>
       <c r="B145" s="0">
-        <v>1.1786647041744636</v>
+        <v>2.1100964732067795</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.16483241620810407</v>
+        <v>0.75125628140703515</v>
       </c>
       <c r="B146" s="0">
-        <v>1.1791954881007272</v>
+        <v>2.1196612356422277</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.16528264132066034</v>
+        <v>0.7557788944723618</v>
       </c>
       <c r="B147" s="0">
-        <v>1.1797265110530473</v>
+        <v>2.1292693537638296</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.16573286643321661</v>
+        <v>0.76030150753768844</v>
       </c>
       <c r="B148" s="0">
-        <v>1.180257773139064</v>
+        <v>2.1389210240966463</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.1661830915457729</v>
+        <v>0.76482412060301508</v>
       </c>
       <c r="B149" s="0">
-        <v>1.1807892744664654</v>
+        <v>2.1486164440565592</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.16663331665832917</v>
+        <v>0.76934673366834172</v>
       </c>
       <c r="B150" s="0">
-        <v>1.1813210151429883</v>
+        <v>2.1583558119543058</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.16708354177088544</v>
+        <v>0.77386934673366825</v>
       </c>
       <c r="B151" s="0">
-        <v>1.1818529952764176</v>
+        <v>2.1681393269995386</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0.16753376688344174</v>
+        <v>0.778391959798995</v>
       </c>
       <c r="B152" s="0">
-        <v>1.1823852149745875</v>
+        <v>2.1779671893048991</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0.16798399199599801</v>
+        <v>0.78291457286432165</v>
       </c>
       <c r="B153" s="0">
-        <v>1.1829176743453802</v>
+        <v>2.1878395998901099</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0.16843421710855427</v>
+        <v>0.78743718592964829</v>
       </c>
       <c r="B154" s="0">
-        <v>1.1834503734967265</v>
+        <v>2.1977567606860866</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.16888444222111057</v>
+        <v>0.79195979899497493</v>
       </c>
       <c r="B155" s="0">
-        <v>1.1839833125366059</v>
+        <v>2.207718874539069</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.16933466733366684</v>
+        <v>0.79648241206030146</v>
       </c>
       <c r="B156" s="0">
-        <v>1.1845164915730471</v>
+        <v>2.2177261452147694</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.16978489244622313</v>
+        <v>0.8010050251256281</v>
       </c>
       <c r="B157" s="0">
-        <v>1.1850499107141261</v>
+        <v>2.2277787774025408</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0.1702351175587794</v>
+        <v>0.80552763819095474</v>
       </c>
       <c r="B158" s="0">
-        <v>1.1855835700679691</v>
+        <v>2.2378769767195634</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.17068534267133567</v>
+        <v>0.81005025125628149</v>
       </c>
       <c r="B159" s="0">
-        <v>1.1861174697427499</v>
+        <v>2.2480209497150505</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.17113556778389194</v>
+        <v>0.81457286432160814</v>
       </c>
       <c r="B160" s="0">
-        <v>1.1866516098466913</v>
+        <v>2.2582109038744727</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.17158579289644821</v>
+        <v>0.81909547738693467</v>
       </c>
       <c r="B161" s="0">
-        <v>1.1871859904880651</v>
+        <v>2.2684470476238019</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.1720360180090045</v>
+        <v>0.82361809045226131</v>
       </c>
       <c r="B162" s="0">
-        <v>1.1877206117751917</v>
+        <v>2.2787295903337768</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.1724862431215608</v>
+        <v>0.82814070351758795</v>
       </c>
       <c r="B163" s="0">
-        <v>1.1882554738164401</v>
+        <v>2.2890587423241811</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.17293646823411707</v>
+        <v>0.83266331658291459</v>
       </c>
       <c r="B164" s="0">
-        <v>1.1887905767202285</v>
+        <v>2.2994347148681489</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.17338669334667334</v>
+        <v>0.83718592964824123</v>
       </c>
       <c r="B165" s="0">
-        <v>1.1893259205950233</v>
+        <v>2.3098577201964843</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0.17383691845922961</v>
+        <v>0.84170854271356776</v>
       </c>
       <c r="B166" s="0">
-        <v>1.1898615055493404</v>
+        <v>2.3203279715020035</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0.1742871435717859</v>
+        <v>0.84623115577889441</v>
       </c>
       <c r="B167" s="0">
-        <v>1.1903973316917442</v>
+        <v>2.3308456829438953</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0.1747373686843422</v>
+        <v>0.85075376884422116</v>
       </c>
       <c r="B168" s="0">
-        <v>1.1909333991308482</v>
+        <v>2.3414110696521</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.17518759379689847</v>
+        <v>0.8552763819095478</v>
       </c>
       <c r="B169" s="0">
-        <v>1.1914697079753147</v>
+        <v>2.3520243477317115</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.17563781890945473</v>
+        <v>0.85979899497487444</v>
       </c>
       <c r="B170" s="0">
-        <v>1.1920062583338547</v>
+        <v>2.362685734267397</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0.176088044022011</v>
+        <v>0.86432160804020097</v>
       </c>
       <c r="B171" s="0">
-        <v>1.1925430503152286</v>
+        <v>2.3733954473278365</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.17653826913456727</v>
+        <v>0.86884422110552761</v>
       </c>
       <c r="B172" s="0">
-        <v>1.1930800840282452</v>
+        <v>2.3841537059701845</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.17698849424712357</v>
+        <v>0.87336683417085426</v>
       </c>
       <c r="B173" s="0">
-        <v>1.1936173595817632</v>
+        <v>2.3949607302445495</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0.17743871935967986</v>
+        <v>0.8778894472361809</v>
       </c>
       <c r="B174" s="0">
-        <v>1.1941548770846895</v>
+        <v>2.4058167411984961</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0.17788894447223613</v>
+        <v>0.88241206030150765</v>
       </c>
       <c r="B175" s="0">
-        <v>1.1946926366459802</v>
+        <v>2.4167219608815649</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.1783391695847924</v>
+        <v>0.88693467336683407</v>
       </c>
       <c r="B176" s="0">
-        <v>1.1952306383746409</v>
+        <v>2.4276766123498139</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.17878939469734867</v>
+        <v>0.89145728643216082</v>
       </c>
       <c r="B177" s="0">
-        <v>1.1957688823797259</v>
+        <v>2.4386809196703849</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.17923961980990497</v>
+        <v>0.89597989949748746</v>
       </c>
       <c r="B178" s="0">
-        <v>1.1963073687703383</v>
+        <v>2.4497351079260805</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.17968984492246126</v>
+        <v>0.90050251256281411</v>
       </c>
       <c r="B179" s="0">
-        <v>1.1968460976556314</v>
+        <v>2.4608394032199734</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.18014007003501753</v>
+        <v>0.90502512562814075</v>
       </c>
       <c r="B180" s="0">
-        <v>1.1973850691448062</v>
+        <v>2.471994032680028</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.1805902951475738</v>
+        <v>0.90954773869346728</v>
       </c>
       <c r="B181" s="0">
-        <v>1.1979242833471142</v>
+        <v>2.4831992244637462</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.18104052026013007</v>
+        <v>0.91407035175879392</v>
       </c>
       <c r="B182" s="0">
-        <v>1.1984637403718557</v>
+        <v>2.4944552077628366</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0.18149074537268634</v>
+        <v>0.91859296482412056</v>
       </c>
       <c r="B183" s="0">
-        <v>1.1990034403283794</v>
+        <v>2.5057622128078991</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.18194097048524263</v>
+        <v>0.92311557788944731</v>
       </c>
       <c r="B184" s="0">
-        <v>1.1995433833260845</v>
+        <v>2.5171204708731372</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.18239119559779893</v>
+        <v>0.92763819095477396</v>
       </c>
       <c r="B185" s="0">
-        <v>1.2000835694744185</v>
+        <v>2.5285302142810853</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.1828414207103552</v>
+        <v>0.93216080402010049</v>
       </c>
       <c r="B186" s="0">
-        <v>1.2006239988828789</v>
+        <v>2.5399916764073627</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.18329164582291146</v>
+        <v>0.93668341708542713</v>
       </c>
       <c r="B187" s="0">
-        <v>1.2011646716610118</v>
+        <v>2.5515050916854478</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.18374187093546773</v>
+        <v>0.94120603015075377</v>
       </c>
       <c r="B188" s="0">
-        <v>1.2017055879184133</v>
+        <v>2.5630706956114708</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0.18419209604802403</v>
+        <v>0.94572864321608041</v>
       </c>
       <c r="B189" s="0">
-        <v>1.2022467477647285</v>
+        <v>2.5746887247490324</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0.18464232116058032</v>
+        <v>0.95025125628140705</v>
       </c>
       <c r="B190" s="0">
-        <v>1.2027881513096521</v>
+        <v>2.5863594167340422</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.18509254627313657</v>
+        <v>0.95477386934673358</v>
       </c>
       <c r="B191" s="0">
-        <v>1.2033297986629277</v>
+        <v>2.598083010279578</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0.18554277138569286</v>
+        <v>0.95929648241206023</v>
       </c>
       <c r="B192" s="0">
-        <v>1.2038716899343487</v>
+        <v>2.609859745180771</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.18599299649824913</v>
+        <v>0.96381909547738698</v>
       </c>
       <c r="B193" s="0">
-        <v>1.2044138252337582</v>
+        <v>2.621689862319708</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.1864432216108054</v>
+        <v>0.96834170854271362</v>
       </c>
       <c r="B194" s="0">
-        <v>1.2049562046710482</v>
+        <v>2.6335736036703592</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.18689344672336169</v>
+        <v>0.97286432160804026</v>
       </c>
       <c r="B195" s="0">
-        <v>1.2054988283561605</v>
+        <v>2.6455112123035294</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.18734367183591796</v>
+        <v>0.97738693467336679</v>
       </c>
       <c r="B196" s="0">
-        <v>1.2060416963990863</v>
+        <v>2.6575029323918256</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.18779389694847426</v>
+        <v>0.98190954773869343</v>
       </c>
       <c r="B197" s="0">
-        <v>1.2065848089098667</v>
+        <v>2.6695490092146574</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.18824412206103053</v>
+        <v>0.98643216080402008</v>
       </c>
       <c r="B198" s="0">
-        <v>1.2071281659985917</v>
+        <v>2.6816496891632475</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.1886943471735868</v>
+        <v>0.99095477386934672</v>
       </c>
       <c r="B199" s="0">
-        <v>1.2076717677754014</v>
+        <v>2.6938052197456761</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.18914457228614309</v>
+        <v>0.99547738693467347</v>
       </c>
       <c r="B200" s="0">
-        <v>1.2082156143504852</v>
+        <v>2.7060158495919415</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.18959479739869933</v>
+        <v>1</v>
       </c>
       <c r="B201" s="0">
-        <v>1.2087597058340824</v>
+        <v>2.7182818284590451</v>
       </c>
     </row>
     <row r="202">
